--- a/docs/ANALYTICS_JUNE.xlsx
+++ b/docs/ANALYTICS_JUNE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Range: 2014-06-01 to 2014-07-01</t>
   </si>
@@ -142,16 +142,13 @@
   </si>
   <si>
     <t>I-D</t>
-  </si>
-  <si>
-    <t>correct w/ June 1 - june 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,41 +204,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -253,7 +222,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -261,31 +230,55 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -638,10 +631,8 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="14"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
@@ -658,1199 +649,1331 @@
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="M7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="K7" s="6"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>18126848</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>3049370</v>
       </c>
-      <c r="D8" s="2">
-        <v>5423725</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4892438</v>
-      </c>
-      <c r="F8" s="4">
-        <v>728856</v>
-      </c>
-      <c r="G8" s="4">
-        <v>822227</v>
-      </c>
-      <c r="H8" s="4">
-        <v>247359</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="D8" s="10">
+        <v>5306900</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4821114</v>
+      </c>
+      <c r="F8" s="10">
+        <v>706498</v>
+      </c>
+      <c r="G8" s="10">
+        <v>787875</v>
+      </c>
+      <c r="H8" s="10">
+        <v>230074</v>
+      </c>
+      <c r="I8" s="6">
         <v>1272803</v>
       </c>
-      <c r="J8" s="9">
-        <v>1208361</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="M8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="11"/>
+      <c r="J8" s="10">
+        <v>307464</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>34159799</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>3871454</v>
       </c>
-      <c r="D9" s="2">
-        <v>7785843</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7131766</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1007620</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1145002</v>
-      </c>
-      <c r="H9" s="4">
-        <v>408972</v>
-      </c>
-      <c r="I9" s="14">
+      <c r="D9" s="10">
+        <v>7582314</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6992489</v>
+      </c>
+      <c r="F9" s="10">
+        <v>969351</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1099376</v>
+      </c>
+      <c r="H9" s="10">
+        <v>384097</v>
+      </c>
+      <c r="I9" s="6">
         <v>1692634</v>
       </c>
-      <c r="J9" s="9">
-        <v>1601122</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="M9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="11"/>
+      <c r="J9" s="10">
+        <v>455600</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>76514543</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>5247238</v>
       </c>
-      <c r="D10" s="2">
-        <v>118600550</v>
-      </c>
-      <c r="E10" s="4">
-        <v>9495295</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1579552</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1497342</v>
-      </c>
-      <c r="H10" s="4">
-        <v>746165</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="D10" s="10">
+        <v>115269873</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9284256</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1518375</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1438124</v>
+      </c>
+      <c r="H10" s="10">
+        <v>708832</v>
+      </c>
+      <c r="I10" s="6">
         <v>2288546</v>
       </c>
-      <c r="J10" s="9">
-        <v>2167235</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="M10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="11"/>
+      <c r="J10" s="10">
+        <v>807048</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>3.85</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>1.81</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>12.31</v>
       </c>
-      <c r="E11" s="4">
-        <v>1.68</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3.39</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="E11" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3.38</v>
+      </c>
+      <c r="G11" s="10">
         <v>1.69</v>
       </c>
-      <c r="H11" s="4">
-        <v>3.83</v>
-      </c>
-      <c r="I11" s="14">
+      <c r="H11" s="10">
+        <v>3.82</v>
+      </c>
+      <c r="I11" s="6">
         <v>0.93</v>
       </c>
-      <c r="J11" s="9">
-        <v>0.94</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="M11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="11"/>
+      <c r="J11" s="10">
+        <v>1.49</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="M11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="M12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="6"/>
+      <c r="M12" s="4"/>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="M13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>16360236</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>2196487</v>
       </c>
-      <c r="D14" s="2">
-        <v>3553560</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3138371</v>
-      </c>
-      <c r="F14" s="4">
-        <v>524179</v>
-      </c>
-      <c r="G14" s="4">
-        <v>598207</v>
-      </c>
-      <c r="H14" s="4">
-        <v>245133</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="D14" s="10">
+        <v>3448636</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3068698</v>
+      </c>
+      <c r="F14" s="10">
+        <v>497953</v>
+      </c>
+      <c r="G14" s="10">
+        <v>578401</v>
+      </c>
+      <c r="H14" s="10">
+        <v>234328</v>
+      </c>
+      <c r="I14" s="6">
         <v>993478</v>
       </c>
-      <c r="J14" s="9">
-        <v>942919</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="M14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" s="11"/>
+      <c r="J14" s="10">
+        <v>346008</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="M14" s="4"/>
+      <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>47762099</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="10">
         <v>3169747</v>
       </c>
-      <c r="D15" s="2">
-        <v>87593883</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4618314</v>
-      </c>
-      <c r="F15" s="4">
-        <v>941013</v>
-      </c>
-      <c r="G15" s="4">
-        <v>827144</v>
-      </c>
-      <c r="H15" s="4">
-        <v>488881</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="D15" s="10">
+        <v>84991619</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4501042</v>
+      </c>
+      <c r="F15" s="10">
+        <v>896719</v>
+      </c>
+      <c r="G15" s="10">
+        <v>799590</v>
+      </c>
+      <c r="H15" s="10">
+        <v>469863</v>
+      </c>
+      <c r="I15" s="6">
         <v>1447218</v>
       </c>
-      <c r="J15" s="9">
-        <v>1375548</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="M15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="11"/>
+      <c r="J15" s="10">
+        <v>649707</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="M15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>5.5</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>2.14</v>
       </c>
-      <c r="D16" s="2">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.41</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4.57</v>
-      </c>
-      <c r="G16" s="4">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="D16" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>2.38</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4.59</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2.27</v>
+      </c>
+      <c r="H16" s="10">
         <v>4.3899999999999997</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="6">
         <v>1.19</v>
       </c>
-      <c r="J16" s="9">
-        <v>1.19</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="M16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="11"/>
+      <c r="J16" s="10">
+        <v>1.72</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="M16" s="4"/>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="M17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="6"/>
+      <c r="M17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="M18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="11"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="6"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>17799563</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="10">
         <v>1674967</v>
       </c>
-      <c r="D19" s="2">
-        <v>4232283</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3993395</v>
-      </c>
-      <c r="F19" s="4">
-        <v>483441</v>
-      </c>
-      <c r="G19" s="4">
-        <v>546795</v>
-      </c>
-      <c r="H19" s="4">
-        <v>163839</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="D19" s="10">
+        <v>4133678</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3923791</v>
+      </c>
+      <c r="F19" s="10">
+        <v>471398</v>
+      </c>
+      <c r="G19" s="10">
+        <v>520975</v>
+      </c>
+      <c r="H19" s="10">
+        <v>149769</v>
+      </c>
+      <c r="I19" s="6">
         <v>699156</v>
       </c>
-      <c r="J19" s="9">
-        <v>658203</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="M19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="11"/>
+      <c r="J19" s="10">
+        <v>109592</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="M19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>28752444</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="10">
         <v>2077491</v>
       </c>
-      <c r="D20" s="2">
-        <v>31006667</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4876981</v>
-      </c>
-      <c r="F20" s="4">
-        <v>638539</v>
-      </c>
-      <c r="G20" s="4">
-        <v>670198</v>
-      </c>
-      <c r="H20" s="4">
-        <v>257284</v>
-      </c>
-      <c r="I20" s="14">
+      <c r="D20" s="10">
+        <v>30278254</v>
+      </c>
+      <c r="E20" s="10">
+        <v>4783214</v>
+      </c>
+      <c r="F20" s="10">
+        <v>621656</v>
+      </c>
+      <c r="G20" s="10">
+        <v>638534</v>
+      </c>
+      <c r="H20" s="10">
+        <v>238969</v>
+      </c>
+      <c r="I20" s="6">
         <v>841328</v>
       </c>
-      <c r="J20" s="9">
-        <v>791687</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="M20" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="11"/>
+      <c r="J20" s="10">
+        <v>157341</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="M20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>2.33</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="10">
         <v>1.37</v>
       </c>
-      <c r="D21" s="2">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2.12</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="D21" s="10">
+        <v>8.81</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2.11</v>
+      </c>
+      <c r="G21" s="10">
         <v>1.05</v>
       </c>
-      <c r="H21" s="4">
-        <v>2.99</v>
-      </c>
-      <c r="I21" s="14">
+      <c r="H21" s="10">
+        <v>2.94</v>
+      </c>
+      <c r="I21" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J21" s="9">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K21" s="9"/>
-      <c r="M21" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="11"/>
+      <c r="J21" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="M21" s="4"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="M22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="6"/>
+      <c r="M22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="M23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="6"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>72.319999999999993</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="10">
         <v>83.06</v>
       </c>
-      <c r="D24" s="2">
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="E24" s="4">
-        <v>81.73</v>
-      </c>
-      <c r="F24" s="4">
-        <v>12.78</v>
-      </c>
-      <c r="G24" s="4">
-        <v>85.41</v>
-      </c>
-      <c r="H24" s="4">
-        <v>42.29</v>
-      </c>
-      <c r="I24" s="14">
+      <c r="D24" s="10">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E24" s="10">
+        <v>81.94</v>
+      </c>
+      <c r="F24" s="10">
+        <v>12.86</v>
+      </c>
+      <c r="G24" s="10">
+        <v>85.46</v>
+      </c>
+      <c r="H24" s="10">
+        <v>42.45</v>
+      </c>
+      <c r="I24" s="6">
         <v>85.52</v>
       </c>
-      <c r="J24" s="9">
-        <v>85.53</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="M24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O24" s="11"/>
+      <c r="J24" s="10">
+        <v>74.59</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="M24" s="4"/>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>65.5</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="10">
         <v>78.37</v>
       </c>
-      <c r="D25" s="2">
-        <v>73.989999999999995</v>
-      </c>
-      <c r="E25" s="4">
-        <v>79.3</v>
-      </c>
-      <c r="F25" s="4">
-        <v>75.87</v>
-      </c>
-      <c r="G25" s="4">
-        <v>77.760000000000005</v>
-      </c>
-      <c r="H25" s="4">
-        <v>74.12</v>
-      </c>
-      <c r="I25" s="14">
+      <c r="D25" s="10">
+        <v>73.98</v>
+      </c>
+      <c r="E25" s="10">
+        <v>79.34</v>
+      </c>
+      <c r="F25" s="10">
+        <v>75.88</v>
+      </c>
+      <c r="G25" s="10">
+        <v>77.55</v>
+      </c>
+      <c r="H25" s="10">
+        <v>73.53</v>
+      </c>
+      <c r="I25" s="6">
         <v>81.739999999999995</v>
       </c>
-      <c r="J25" s="9">
-        <v>81.569999999999993</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="M25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="11"/>
+      <c r="J25" s="10">
+        <v>73.819999999999993</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="M25" s="4"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>34.5</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="10">
         <v>21.63</v>
       </c>
-      <c r="D26" s="2">
-        <v>26.01</v>
-      </c>
-      <c r="E26" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="F26" s="4">
-        <v>24.13</v>
-      </c>
-      <c r="G26" s="4">
-        <v>22.24</v>
-      </c>
-      <c r="H26" s="4">
-        <v>25.88</v>
-      </c>
-      <c r="I26" s="14">
+      <c r="D26" s="10">
+        <v>26.02</v>
+      </c>
+      <c r="E26" s="10">
+        <v>20.66</v>
+      </c>
+      <c r="F26" s="10">
+        <v>24.12</v>
+      </c>
+      <c r="G26" s="10">
+        <v>22.45</v>
+      </c>
+      <c r="H26" s="10">
+        <v>26.47</v>
+      </c>
+      <c r="I26" s="6">
         <v>18.260000000000002</v>
       </c>
-      <c r="J26" s="9">
-        <v>18.43</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="M26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15" s="8" customFormat="1">
+      <c r="J26" s="10">
+        <v>26.18</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="M26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>4731615</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="10">
         <v>132884</v>
       </c>
-      <c r="D27" s="5">
-        <v>384226</v>
-      </c>
-      <c r="E27" s="5">
-        <v>397109</v>
-      </c>
-      <c r="F27" s="7">
-        <v>49172</v>
-      </c>
-      <c r="G27" s="7">
-        <v>29315</v>
-      </c>
-      <c r="H27" s="7">
-        <v>54991</v>
-      </c>
-      <c r="I27" s="14">
+      <c r="D27" s="10">
+        <v>371612</v>
+      </c>
+      <c r="E27" s="10">
+        <v>382053</v>
+      </c>
+      <c r="F27" s="10">
+        <v>47457</v>
+      </c>
+      <c r="G27" s="10">
+        <v>28040</v>
+      </c>
+      <c r="H27" s="10">
+        <v>52972</v>
+      </c>
+      <c r="I27" s="6">
         <v>51426</v>
       </c>
-      <c r="J27" s="9">
-        <v>48612</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="M27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="11"/>
+      <c r="J27" s="10">
+        <v>25680</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="M27" s="10"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="10">
         <v>13.85</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="10">
         <v>3.43</v>
       </c>
-      <c r="D28" s="2">
-        <v>4.93</v>
-      </c>
-      <c r="E28" s="4">
-        <v>5.57</v>
-      </c>
-      <c r="F28" s="4">
-        <v>4.88</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2.56</v>
-      </c>
-      <c r="H28" s="4">
-        <v>13.45</v>
-      </c>
-      <c r="I28" s="14">
+      <c r="D28" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E28" s="10">
+        <v>5.46</v>
+      </c>
+      <c r="F28" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G28" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H28" s="10">
+        <v>13.79</v>
+      </c>
+      <c r="I28" s="6">
         <v>3.04</v>
       </c>
-      <c r="J28" s="9">
-        <v>3.04</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="M28" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O28" s="11"/>
+      <c r="J28" s="10">
+        <v>5.64</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="M28" s="4"/>
+      <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>78.13</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="10">
         <v>86.04</v>
       </c>
-      <c r="D29" s="2">
-        <v>36.229999999999997</v>
-      </c>
-      <c r="E29" s="4">
-        <v>86.15</v>
-      </c>
-      <c r="F29" s="4">
-        <v>75.73</v>
-      </c>
-      <c r="G29" s="4">
-        <v>89.89</v>
-      </c>
-      <c r="H29" s="4">
-        <v>60.21</v>
-      </c>
-      <c r="I29" s="14">
+      <c r="D29" s="10">
+        <v>36.18</v>
+      </c>
+      <c r="E29" s="10">
+        <v>86.31</v>
+      </c>
+      <c r="F29" s="10">
+        <v>76.41</v>
+      </c>
+      <c r="G29" s="10">
+        <v>89.85</v>
+      </c>
+      <c r="H29" s="10">
+        <v>60.81</v>
+      </c>
+      <c r="I29" s="6">
         <v>89.94</v>
       </c>
-      <c r="J29" s="9">
-        <v>89.96</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="M29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="11"/>
+      <c r="J29" s="10">
+        <v>84.18</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="M29" s="4"/>
+      <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>21.77</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="10">
         <v>12.21</v>
       </c>
-      <c r="D30" s="2">
-        <v>63.76</v>
-      </c>
-      <c r="E30" s="4">
-        <v>13.85</v>
-      </c>
-      <c r="F30" s="4">
-        <v>23.51</v>
-      </c>
-      <c r="G30" s="4">
-        <v>10.11</v>
-      </c>
-      <c r="H30" s="4">
-        <v>39.79</v>
-      </c>
-      <c r="I30" s="14">
+      <c r="D30" s="10">
+        <v>63.81</v>
+      </c>
+      <c r="E30" s="10">
+        <v>13.69</v>
+      </c>
+      <c r="F30" s="10">
+        <v>23.59</v>
+      </c>
+      <c r="G30" s="10">
+        <v>10.15</v>
+      </c>
+      <c r="H30" s="10">
+        <v>39.19</v>
+      </c>
+      <c r="I30" s="6">
         <v>10.06</v>
       </c>
-      <c r="J30" s="9">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="K30" s="9"/>
-      <c r="M30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O30" s="11"/>
+      <c r="J30" s="10">
+        <v>15.82</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="M30" s="4"/>
+      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="M31" s="11"/>
-      <c r="O31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="6"/>
+      <c r="M31" s="4"/>
+      <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="M32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O32" s="11"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="6"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="10">
         <v>19.96</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="10">
         <v>21.55</v>
       </c>
-      <c r="D33" s="2">
-        <v>20.45</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="F33" s="4">
-        <v>11.58</v>
-      </c>
-      <c r="G33" s="4">
-        <v>27.64</v>
-      </c>
-      <c r="H33" s="4">
-        <v>22.98</v>
-      </c>
-      <c r="I33" s="14">
+      <c r="D33" s="10">
+        <v>20.52</v>
+      </c>
+      <c r="E33" s="10">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F33" s="10">
+        <v>11.63</v>
+      </c>
+      <c r="G33" s="10">
+        <v>27.41</v>
+      </c>
+      <c r="H33" s="10">
+        <v>23.56</v>
+      </c>
+      <c r="I33" s="6">
         <v>29.04</v>
       </c>
-      <c r="J33" s="9">
-        <v>28.78</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="M33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="11"/>
+      <c r="J33" s="10">
+        <v>12.71</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="M33" s="4"/>
+      <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="10">
         <v>3.35</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="10">
         <v>3.04</v>
       </c>
-      <c r="D34" s="2">
-        <v>1.32</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="10">
+        <v>1.31</v>
+      </c>
+      <c r="E34" s="10">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="10">
         <v>0.03</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.39</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="10">
+        <v>1.19</v>
+      </c>
+      <c r="H34" s="10">
         <v>0.02</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="6">
         <v>1.63</v>
       </c>
-      <c r="J34" s="9">
-        <v>1.64</v>
-      </c>
-      <c r="K34" s="9"/>
-      <c r="M34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O34" s="11"/>
+      <c r="J34" s="10">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="M34" s="4"/>
+      <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="10">
         <v>21.18</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="10">
         <v>14.99</v>
       </c>
-      <c r="D35" s="2">
-        <v>11.68</v>
-      </c>
-      <c r="E35" s="4">
-        <v>8.24</v>
-      </c>
-      <c r="F35" s="4">
-        <v>7.66</v>
-      </c>
-      <c r="G35" s="4">
-        <v>13.1</v>
-      </c>
-      <c r="H35" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I35" s="14">
+      <c r="D35" s="10">
+        <v>11.63</v>
+      </c>
+      <c r="E35" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>7.68</v>
+      </c>
+      <c r="G35" s="10">
+        <v>12.99</v>
+      </c>
+      <c r="H35" s="10">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="I35" s="6">
         <v>8.16</v>
       </c>
-      <c r="J35" s="9">
-        <v>8.27</v>
-      </c>
-      <c r="K35" s="9"/>
-      <c r="M35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" s="11"/>
+      <c r="J35" s="10">
+        <v>10.35</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="M35" s="4"/>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" s="6" customFormat="1">
       <c r="A36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="10">
         <v>16996886</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="10">
         <v>1274161</v>
       </c>
-      <c r="D36" s="6">
-        <v>2237485</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1420480</v>
-      </c>
-      <c r="F36" s="7">
-        <v>370999</v>
-      </c>
-      <c r="G36" s="7">
-        <v>404390</v>
-      </c>
-      <c r="H36" s="7">
-        <v>146777</v>
-      </c>
-      <c r="I36" s="14">
+      <c r="D36" s="10">
+        <v>2175896</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1409173</v>
+      </c>
+      <c r="F36" s="10">
+        <v>366746</v>
+      </c>
+      <c r="G36" s="10">
+        <v>388724</v>
+      </c>
+      <c r="H36" s="10">
+        <v>142214</v>
+      </c>
+      <c r="I36" s="6">
         <v>638107</v>
       </c>
-      <c r="J36" s="9">
-        <v>604317</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="M36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="11"/>
+      <c r="J36" s="10">
+        <v>91929</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="10">
         <v>49.76</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="10">
         <v>32.909999999999997</v>
       </c>
-      <c r="D37" s="2">
-        <v>28.74</v>
-      </c>
-      <c r="E37" s="4">
-        <v>19.920000000000002</v>
-      </c>
-      <c r="F37" s="4">
-        <v>36.82</v>
-      </c>
-      <c r="G37" s="4">
-        <v>35.32</v>
-      </c>
-      <c r="H37" s="4">
-        <v>35.89</v>
-      </c>
-      <c r="I37" s="14">
+      <c r="D37" s="10">
+        <v>28.7</v>
+      </c>
+      <c r="E37" s="10">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F37" s="10">
+        <v>37.83</v>
+      </c>
+      <c r="G37" s="10">
+        <v>35.36</v>
+      </c>
+      <c r="H37" s="10">
+        <v>37.03</v>
+      </c>
+      <c r="I37" s="6">
         <v>37.700000000000003</v>
       </c>
-      <c r="J37" s="9">
-        <v>37.74</v>
-      </c>
-      <c r="K37" s="9"/>
-      <c r="M37" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="11"/>
+      <c r="J37" s="10">
+        <v>20.18</v>
+      </c>
+      <c r="K37" s="6"/>
+      <c r="M37" s="4"/>
+      <c r="O37" s="4"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="10">
         <v>0.1</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="10">
         <v>0.05</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="10">
         <v>0.02</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="10">
         <v>0.24</v>
       </c>
-      <c r="H38" s="4">
-        <v>0.41</v>
-      </c>
-      <c r="I38" s="14">
+      <c r="H38" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="I38" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J38" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="M38" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="11"/>
+      <c r="J38" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="K38" s="6"/>
+      <c r="M38" s="4"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="10">
         <v>0</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="10">
         <v>0.01</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="10">
         <v>0</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="10">
         <v>0</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="10">
         <v>0</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="10">
         <v>0</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="10">
         <v>0</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="6">
         <v>0</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="10">
         <v>0</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="M39" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="O39" s="11"/>
+      <c r="K39" s="6"/>
+      <c r="M39" s="4"/>
+      <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="10">
         <v>0.03</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="10">
         <v>0.03</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="10">
         <v>0.01</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="10">
         <v>0.03</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="10">
         <v>0.11</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="10">
         <v>0.03</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="6">
         <v>0.08</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="M40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F41" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="G41" s="10">
         <v>0.08</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="M40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="11"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="13">
+      <c r="H41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="J41" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="K41" s="6"/>
+      <c r="M41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="10">
         <v>0.01</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C42" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D42" s="10">
         <v>0.02</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E42" s="10">
         <v>0.01</v>
       </c>
-      <c r="E41" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="I41" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="M41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" s="11"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="C42" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="F42" s="10">
         <v>0.04</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="10">
         <v>0.04</v>
       </c>
-      <c r="H42" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="I42" s="14">
+      <c r="H42" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="6">
         <v>0.03</v>
       </c>
-      <c r="J42" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="K42" s="9"/>
-      <c r="M42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="O42" s="11"/>
+      <c r="J42" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="K42" s="6"/>
+      <c r="M42" s="4"/>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="10">
         <v>5.6</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="10">
         <v>27.39</v>
       </c>
-      <c r="D43" s="2">
-        <v>37.75</v>
-      </c>
-      <c r="E43" s="4">
-        <v>65.56</v>
-      </c>
-      <c r="F43" s="4">
-        <v>43.42</v>
-      </c>
-      <c r="G43" s="4">
-        <v>22.16</v>
-      </c>
-      <c r="H43" s="4">
-        <v>20.83</v>
-      </c>
-      <c r="I43" s="14">
+      <c r="D43" s="10">
+        <v>37.78</v>
+      </c>
+      <c r="E43" s="10">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="F43" s="10">
+        <v>42.34</v>
+      </c>
+      <c r="G43" s="10">
+        <v>22.66</v>
+      </c>
+      <c r="H43" s="10">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="I43" s="6">
         <v>23.27</v>
       </c>
-      <c r="J43" s="9">
-        <v>23.37</v>
-      </c>
-      <c r="K43"/>
-      <c r="M43" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43"/>
+      <c r="J43" s="10">
+        <v>56.38</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
